--- a/Python/litigation/litigation_template.xlsx
+++ b/Python/litigation/litigation_template.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/joao/projects/repo/personal-academy/Python/litigation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11A29854-D378-6F49-9592-F8CE70DA6248}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{267F48B4-C5B0-4345-93DF-0509D12CC439}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="280" yWindow="500" windowWidth="28240" windowHeight="16100" xr2:uid="{7DF4963E-3523-1C42-A25C-237166D8E9B4}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="11">
   <si>
     <t>CLIENTE</t>
   </si>
@@ -49,9 +49,6 @@
     <t>Gislaine Mendes Cunha</t>
   </si>
   <si>
-    <t xml:space="preserve">Amiel Dias de Luiz </t>
-  </si>
-  <si>
     <t>Eris La Mancha Bittencourt</t>
   </si>
   <si>
@@ -67,10 +64,10 @@
     <t># PROCESSO</t>
   </si>
   <si>
-    <t>Carlos Lopes Dias</t>
-  </si>
-  <si>
     <t>Mike Wasalski</t>
+  </si>
+  <si>
+    <t>Amiel Dias de Luiz</t>
   </si>
 </sst>
 </file>
@@ -435,7 +432,7 @@
   <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -453,19 +450,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
         <v>2</v>
       </c>
       <c r="F1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -476,7 +473,7 @@
         <v>15</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1">
         <v>15000</v>
@@ -490,7 +487,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B3" s="2">
         <v>30</v>
@@ -510,13 +507,13 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B4" s="2">
         <v>50</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D4" s="1">
         <v>1000000</v>
